--- a/public/assets/frontend/example/product.xlsx
+++ b/public/assets/frontend/example/product.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
-    <t xml:space="preserve">model</t>
+    <t xml:space="preserve">Model</t>
   </si>
   <si>
     <t xml:space="preserve">Series of equipment</t>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">analogue channels</t>
   </si>
   <si>
-    <t xml:space="preserve">aditional IP Channels</t>
+    <t xml:space="preserve">Additional IP Channels</t>
   </si>
   <si>
     <t xml:space="preserve">HDD Slots</t>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">Price with Tax</t>
   </si>
   <si>
-    <t xml:space="preserve">Camera type instalation</t>
+    <t xml:space="preserve">Camera type installation</t>
   </si>
   <si>
     <t xml:space="preserve">Camera type</t>
@@ -105,16 +105,16 @@
     <t xml:space="preserve">PoE Channels</t>
   </si>
   <si>
-    <t xml:space="preserve">standards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display_order</t>
+    <t xml:space="preserve">Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display order</t>
   </si>
   <si>
     <t xml:space="preserve">product name</t>
@@ -285,8 +285,8 @@
   </sheetPr>
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/assets/frontend/example/product.xlsx
+++ b/public/assets/frontend/example/product.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display order</t>
   </si>
   <si>
     <t xml:space="preserve">product name</t>
@@ -285,8 +282,8 @@
   </sheetPr>
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM9" activeCellId="0" sqref="AM9:AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,58 +412,56 @@
       <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="AE1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="Z2" s="1" t="n">
         <v>128</v>
@@ -475,16 +470,13 @@
         <v>0</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +2992,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AM9:AM10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3023,7 +3015,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AM9:AM10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/assets/frontend/example/product.xlsx
+++ b/public/assets/frontend/example/product.xlsx
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">Model</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">product name</t>
   </si>
   <si>
     <t xml:space="preserve">Series of equipment</t>
@@ -69,7 +69,7 @@
     <t xml:space="preserve">RS485</t>
   </si>
   <si>
-    <t xml:space="preserve">priority</t>
+    <t xml:space="preserve">Priority</t>
   </si>
   <si>
     <t xml:space="preserve">Price nett</t>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">Display order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product name</t>
   </si>
   <si>
     <t xml:space="preserve">BCS Line</t>
@@ -285,8 +282,8 @@
   </sheetPr>
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -421,52 +418,52 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="Z2" s="1" t="n">
         <v>128</v>
@@ -475,13 +472,13 @@
         <v>0</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="AE2" s="1" t="n">
         <v>1</v>

--- a/public/assets/frontend/example/product.xlsx
+++ b/public/assets/frontend/example/product.xlsx
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
-  <si>
-    <t xml:space="preserve">product name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">Product name</t>
   </si>
   <si>
     <t xml:space="preserve">Series of equipment</t>
@@ -114,7 +114,7 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Display order</t>
+    <t xml:space="preserve">xlsx B110</t>
   </si>
   <si>
     <t xml:space="preserve">BCS Line</t>
@@ -283,7 +283,7 @@
   <dimension ref="A1:AE108"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -412,13 +412,11 @@
       <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="AE1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
@@ -479,9 +477,6 @@
       </c>
       <c r="AD2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/public/assets/frontend/example/product.xlsx
+++ b/public/assets/frontend/example/product.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">Product name</t>
   </si>
@@ -69,49 +69,52 @@
     <t xml:space="preserve">RS485</t>
   </si>
   <si>
+    <t xml:space="preserve">Price nett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price with Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera type installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoE Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Priority</t>
   </si>
   <si>
-    <t xml:space="preserve">Price nett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price with Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera type installation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housing color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory slot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of channels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoE Channels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
+    <t xml:space="preserve">Price</t>
   </si>
   <si>
     <t xml:space="preserve">xlsx B110</t>
@@ -163,6 +166,9 @@
   </si>
   <si>
     <t xml:space="preserve">nvr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"GBP": "69","USD": "100"}</t>
   </si>
 </sst>
 </file>
@@ -282,8 +288,8 @@
   </sheetPr>
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE2" activeCellId="0" sqref="A1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,7 +323,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="21.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -412,71 +419,76 @@
       <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2"/>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>46</v>
+      <c r="AE2" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,7 +3004,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3015,7 +3027,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
